--- a/Crawling/crawling_data/day_genie/day_genie_20220203.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220203.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
   <si>
     <t>날짜</t>
   </si>
@@ -61,8 +61,7 @@
     <t>Counting Stars (Feat. Beenzino)</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>겨울잠</t>
@@ -245,8 +244,7 @@
     <t>추억은 만남보다 이별에 남아</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>At My Worst</t>
@@ -556,9 +554,6 @@
   </si>
   <si>
     <t>Counting Stars</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>조각집</t>
@@ -1262,7 +1257,7 @@
         <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1279,7 +1274,7 @@
         <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1296,7 +1291,7 @@
         <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1347,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1415,7 +1410,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1466,7 +1461,7 @@
         <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1483,7 +1478,7 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1534,7 +1529,7 @@
         <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1551,7 +1546,7 @@
         <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1586,7 +1581,7 @@
         <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1620,7 +1615,7 @@
         <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1637,7 +1632,7 @@
         <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1654,7 +1649,7 @@
         <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1671,7 +1666,7 @@
         <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1722,7 +1717,7 @@
         <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1739,7 +1734,7 @@
         <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1756,7 +1751,7 @@
         <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1790,7 +1785,7 @@
         <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1807,7 +1802,7 @@
         <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1824,7 +1819,7 @@
         <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1875,7 +1870,7 @@
         <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1892,7 +1887,7 @@
         <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1909,7 +1904,7 @@
         <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1926,7 +1921,7 @@
         <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1943,7 +1938,7 @@
         <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1960,7 +1955,7 @@
         <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1977,7 +1972,7 @@
         <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1994,7 +1989,7 @@
         <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2011,7 +2006,7 @@
         <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2028,7 +2023,7 @@
         <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2062,7 +2057,7 @@
         <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2079,7 +2074,7 @@
         <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2096,7 +2091,7 @@
         <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2130,7 +2125,7 @@
         <v>116</v>
       </c>
       <c r="E62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2147,7 +2142,7 @@
         <v>142</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2164,7 +2159,7 @@
         <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2181,7 +2176,7 @@
         <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2198,7 +2193,7 @@
         <v>110</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2215,7 +2210,7 @@
         <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2232,7 +2227,7 @@
         <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2249,7 +2244,7 @@
         <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2300,7 +2295,7 @@
         <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2317,7 +2312,7 @@
         <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2334,7 +2329,7 @@
         <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2351,7 +2346,7 @@
         <v>115</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2368,7 +2363,7 @@
         <v>156</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2385,7 +2380,7 @@
         <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2402,7 +2397,7 @@
         <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2436,7 +2431,7 @@
         <v>160</v>
       </c>
       <c r="E80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2504,7 +2499,7 @@
         <v>115</v>
       </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2572,7 +2567,7 @@
         <v>166</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2589,7 +2584,7 @@
         <v>160</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2623,7 +2618,7 @@
         <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2640,7 +2635,7 @@
         <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2691,7 +2686,7 @@
         <v>128</v>
       </c>
       <c r="E95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2742,7 +2737,7 @@
         <v>172</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2776,7 +2771,7 @@
         <v>173</v>
       </c>
       <c r="E100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2793,7 +2788,7 @@
         <v>174</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
